--- a/data/trans_dic/P79$alquiler_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P79$alquiler_2023-Edad-trans_dic.xlsx
@@ -567,10 +567,10 @@
         <v>0.01145313400539803</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.06499119612638819</v>
+        <v>0.06499119612638821</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.03669954701113646</v>
+        <v>0.03669954701113645</v>
       </c>
     </row>
     <row r="5">
@@ -584,10 +584,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03412714622303531</v>
+        <v>0.0355009199524173</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02022690289522064</v>
+        <v>0.01976202819003768</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04050436500660369</v>
+        <v>0.03675725846022238</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.112389940907661</v>
+        <v>0.1116592990501286</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06693777262983187</v>
+        <v>0.05969778575944477</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         <v>0.02456463758827897</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.03870144002754305</v>
+        <v>0.03870144002754304</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.03174496617078862</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.009958117539228754</v>
+        <v>0.0113240847815018</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02296009097499384</v>
+        <v>0.02307919679875681</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02039651108104888</v>
+        <v>0.02138063835773359</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04888883298746561</v>
+        <v>0.05062961633793154</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06032397286789908</v>
+        <v>0.06054174498108568</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04630308005993778</v>
+        <v>0.04782530398787928</v>
       </c>
     </row>
     <row r="10">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.04713085962982044</v>
+        <v>0.04713085962982045</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.02671367051947828</v>
+        <v>0.02671367051947827</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.03687719361116738</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03214680175520032</v>
+        <v>0.03081968370854806</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01771540695792883</v>
+        <v>0.0168313072997026</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02720753140709808</v>
+        <v>0.0270931558111664</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06931067683226</v>
+        <v>0.06899181721256271</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0417720455246219</v>
+        <v>0.03865868951574117</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04772339507974879</v>
+        <v>0.04871322337822367</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.009305868932939452</v>
+        <v>0.008258748602270079</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01345809497838103</v>
+        <v>0.01363015375475281</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01306584014768681</v>
+        <v>0.01374837915244517</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0309343768999267</v>
+        <v>0.03014015618698128</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03088497619182025</v>
+        <v>0.03114586153253103</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02590460704349641</v>
+        <v>0.02796415831725444</v>
       </c>
     </row>
     <row r="16">
@@ -784,10 +784,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.01173049237036254</v>
+        <v>0.01173049237036253</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.01201672517436948</v>
+        <v>0.01201672517436949</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.01187310075978162</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.005277840749717252</v>
+        <v>0.005221246668156416</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.006415547625843521</v>
+        <v>0.006315004082220994</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.007329629428183562</v>
+        <v>0.007154717000681593</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02426748313224598</v>
+        <v>0.02275313501337438</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02074436512681454</v>
+        <v>0.02126606339679986</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01839283445589944</v>
+        <v>0.01857177083740512</v>
       </c>
     </row>
     <row r="19">
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.002113926289954336</v>
+        <v>0.002160380330937926</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.002033017623829659</v>
+        <v>0.002138360743323256</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.01209209647567623</v>
+        <v>0.01206880452354439</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.01334172606230431</v>
+        <v>0.01380477713291243</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.009704280555950892</v>
+        <v>0.009402966723544128</v>
       </c>
     </row>
     <row r="22">
@@ -914,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.00206029976237736</v>
+        <v>0.002193424864096434</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.001931711976804183</v>
+        <v>0.001933942599033662</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01727900958337685</v>
+        <v>0.019266872119449</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.01271351816648599</v>
+        <v>0.01327523803715049</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.01116488387770836</v>
+        <v>0.01084064257754608</v>
       </c>
     </row>
     <row r="25">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01457590103365021</v>
+        <v>0.01442526973404322</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.01827250849051532</v>
+        <v>0.01864190778531208</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01760365725130402</v>
+        <v>0.01822347946997742</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.02547367789169946</v>
+        <v>0.02499793997470616</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.0291271770989474</v>
+        <v>0.02963746321991267</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.02531208114483181</v>
+        <v>0.02542161993336447</v>
       </c>
     </row>
     <row r="28">
@@ -1137,10 +1137,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>11512</v>
+        <v>11976</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>14470</v>
+        <v>14137</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>15312</v>
+        <v>13895</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>37913</v>
+        <v>37667</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>47885</v>
+        <v>42706</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4673</v>
+        <v>5314</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>11121</v>
+        <v>11179</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>19451</v>
+        <v>20389</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>22942</v>
+        <v>23758</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>29219</v>
+        <v>29324</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>44156</v>
+        <v>45607</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>19278</v>
+        <v>18482</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>10718</v>
+        <v>10183</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>32777</v>
+        <v>32639</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>41565</v>
+        <v>41374</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>25273</v>
+        <v>23389</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>57492</v>
+        <v>58685</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>6351</v>
+        <v>5636</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>9651</v>
+        <v>9774</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>18286</v>
+        <v>19241</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>21111</v>
+        <v>20569</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>22148</v>
+        <v>22335</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>36255</v>
+        <v>39137</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3118</v>
+        <v>3084</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3763</v>
+        <v>3704</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>8629</v>
+        <v>8423</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>14335</v>
+        <v>13441</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>12168</v>
+        <v>12474</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>21653</v>
+        <v>21864</v>
       </c>
     </row>
     <row r="24">
@@ -1497,10 +1497,10 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>901</v>
+        <v>921</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1673</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4795</v>
+        <v>4786</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>5689</v>
+        <v>5886</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>7986</v>
+        <v>7738</v>
       </c>
     </row>
     <row r="28">
@@ -1569,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>911</v>
+        <v>970</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1442</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>5255</v>
+        <v>5859</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>5623</v>
+        <v>5872</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>8334</v>
+        <v>8092</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>49862</v>
+        <v>49346</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>65764</v>
+        <v>67093</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>123575</v>
+        <v>127926</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>87141</v>
+        <v>85513</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>104830</v>
+        <v>106667</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>177688</v>
+        <v>178457</v>
       </c>
     </row>
     <row r="36">
